--- a/docs/data/scores/2025_wk17_scores.xlsx
+++ b/docs/data/scores/2025_wk17_scores.xlsx
@@ -615,6 +615,12 @@
       <c r="C11" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="D11" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
@@ -626,6 +632,12 @@
       <c r="C12" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="D12" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>42.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
@@ -637,6 +649,12 @@
       <c r="C13" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="D13" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>34.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
@@ -648,6 +666,12 @@
       <c r="C14" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="D14" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>34.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
@@ -659,6 +683,12 @@
       <c r="C15" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D15" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
@@ -670,6 +700,12 @@
       <c r="C16" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="D16" s="2">
+        <v>42.0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>38.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
@@ -680,6 +716,12 @@
       </c>
       <c r="C17" s="1" t="s">
         <v>52</v>
+      </c>
+      <c r="D17" s="2">
+        <v>27.0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>24.0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
